--- a/APM files/124106813/124106813 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/124106813/124106813 IMPORT Stop Sell Removal.xlsx
@@ -1,40 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\124106813\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E21D91-2194-4EF5-830A-2598FB3B7E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14010" yWindow="5370" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="6">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Stop Sell Property</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +81,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,56 +417,724 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Property</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>102337387</v>
+      </c>
+      <c r="B2">
+        <v>124106813</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>102374201</v>
+      </c>
+      <c r="B3">
+        <v>124106813</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>102324425</v>
+      </c>
+      <c r="B4">
+        <v>124106813</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>102372567</v>
+      </c>
+      <c r="B5">
+        <v>124106813</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>102372565</v>
+      </c>
+      <c r="B6">
+        <v>124106813</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>102372564</v>
+      </c>
+      <c r="B7">
+        <v>124106813</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>102341222</v>
+      </c>
+      <c r="B8">
+        <v>124106813</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>102337395</v>
+      </c>
+      <c r="B9">
+        <v>124106813</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>102337392</v>
+      </c>
+      <c r="B10">
+        <v>124106813</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>102314737</v>
+      </c>
+      <c r="B11">
+        <v>124106813</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>102314232</v>
+      </c>
+      <c r="B12">
+        <v>124106813</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>102427130</v>
+      </c>
+      <c r="B13">
+        <v>124106813</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>102337386</v>
+      </c>
+      <c r="B14">
+        <v>124106813</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>102337385</v>
+      </c>
+      <c r="B15">
+        <v>124106813</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>102396107</v>
+      </c>
+      <c r="B16">
+        <v>124106813</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>102337393</v>
+      </c>
+      <c r="B17">
+        <v>124106813</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>102352877</v>
+      </c>
+      <c r="B18">
+        <v>124106813</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>102396110</v>
+      </c>
+      <c r="B19">
+        <v>124106813</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>102276994</v>
+      </c>
+      <c r="B20">
+        <v>124106813</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>102427269</v>
+      </c>
+      <c r="B21">
+        <v>124106813</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>102322021</v>
+      </c>
+      <c r="B22">
+        <v>124106813</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>102372569</v>
+      </c>
+      <c r="B23">
+        <v>124106813</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>102372566</v>
+      </c>
+      <c r="B24">
+        <v>124106813</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>102296676</v>
+      </c>
+      <c r="B25">
+        <v>124106813</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>102358019</v>
+      </c>
+      <c r="B26">
+        <v>124106813</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>102299430</v>
+      </c>
+      <c r="B27">
+        <v>124106813</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>102314727</v>
+      </c>
+      <c r="B28">
+        <v>124106813</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>102314718</v>
+      </c>
+      <c r="B29">
+        <v>124106813</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>102276993</v>
+      </c>
+      <c r="B30">
+        <v>124106813</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>102276992</v>
+      </c>
+      <c r="B31">
+        <v>124106813</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>102276991</v>
+      </c>
+      <c r="B32">
+        <v>124106813</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>102337396</v>
+      </c>
+      <c r="B33">
+        <v>124106813</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>102296674</v>
+      </c>
+      <c r="B34">
+        <v>124106813</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>102277003</v>
+      </c>
+      <c r="B35">
+        <v>124106813</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>102314716</v>
+      </c>
+      <c r="B36">
+        <v>124106813</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>102379432</v>
+      </c>
+      <c r="B37">
+        <v>124106813</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>102296680</v>
+      </c>
+      <c r="B38">
+        <v>124106813</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>102314803</v>
+      </c>
+      <c r="B39">
+        <v>124106813</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>102314736</v>
+      </c>
+      <c r="B40">
+        <v>124106813</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>102314726</v>
+      </c>
+      <c r="B41">
+        <v>124106813</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>102314725</v>
+      </c>
+      <c r="B42">
+        <v>124106813</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>102314724</v>
+      </c>
+      <c r="B43">
+        <v>124106813</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>102427129</v>
+      </c>
+      <c r="B44">
+        <v>124106813</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>102396111</v>
+      </c>
+      <c r="B45">
+        <v>124106813</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>102277004</v>
+      </c>
+      <c r="B46">
+        <v>124106813</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>102314717</v>
+      </c>
+      <c r="B47">
+        <v>124106813</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>102314715</v>
+      </c>
+      <c r="B48">
+        <v>124106813</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>102409104</v>
+      </c>
+      <c r="B49">
+        <v>124106813</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>97309354</v>
+      </c>
+      <c r="B50">
+        <v>124106813</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A50">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>